--- a/filtering/pottest.xlsx
+++ b/filtering/pottest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\MFMSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\filtering\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB3C11C-9DCA-4549-8B2B-2B90BB6B2F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>CPI</t>
   </si>
@@ -429,54 +430,6 @@
   </si>
   <si>
     <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q1</t>
-  </si>
-  <si>
-    <t>2011Q2</t>
-  </si>
-  <si>
-    <t>2011Q3</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q1</t>
-  </si>
-  <si>
-    <t>2012Q2</t>
-  </si>
-  <si>
-    <t>2012Q3</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q1</t>
-  </si>
-  <si>
-    <t>2013Q2</t>
-  </si>
-  <si>
-    <t>2013Q3</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q1</t>
-  </si>
-  <si>
-    <t>2014Q2</t>
-  </si>
-  <si>
-    <t>2014Q3</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
   </si>
   <si>
     <t>INFL</t>
@@ -485,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -796,16 +749,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -816,2901 +769,2629 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>21.7</v>
+        <v>31.5</v>
       </c>
       <c r="C2">
-        <v>126118</v>
+        <v>143359</v>
       </c>
       <c r="D2">
-        <v>137.47</v>
+        <v>138.58000000000001</v>
+      </c>
+      <c r="E2">
+        <v>2.5</v>
       </c>
       <c r="F2">
-        <v>6.2616686330000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.5683436000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>22.1</v>
+        <v>32.6</v>
       </c>
       <c r="C3">
-        <v>128077</v>
+        <v>142457</v>
       </c>
       <c r="D3">
-        <v>132.57</v>
+        <v>135.76</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>6.3161025329999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.1269999669999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22.6</v>
+        <v>33.6</v>
       </c>
       <c r="C4">
-        <v>129122</v>
+        <v>140179</v>
       </c>
       <c r="D4">
-        <v>130.19</v>
+        <v>134.53</v>
+      </c>
+      <c r="E4">
+        <v>2.6</v>
       </c>
       <c r="F4">
-        <v>6.2965807329999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.7939619669999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="C5">
-        <v>132635</v>
+        <v>138772</v>
       </c>
       <c r="D5">
-        <v>130.83000000000001</v>
+        <v>131.72</v>
+      </c>
+      <c r="E5">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F5">
-        <v>6.3343365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.650102167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>23.6</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>130506</v>
+        <v>138448</v>
       </c>
       <c r="D6">
-        <v>131.05000000000001</v>
+        <v>125.45</v>
+      </c>
+      <c r="E6">
+        <v>1.8</v>
       </c>
       <c r="F6">
-        <v>6.3229084000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.228736469999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>24.2</v>
+        <v>35.6</v>
       </c>
       <c r="C7">
-        <v>131781</v>
+        <v>142754</v>
       </c>
       <c r="D7">
-        <v>132.62</v>
+        <v>129.62</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
       </c>
       <c r="F7">
-        <v>6.1882519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.3556651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>24.9</v>
+        <v>36.5</v>
       </c>
       <c r="C8">
-        <v>134307</v>
+        <v>144818</v>
       </c>
       <c r="D8">
-        <v>132.28</v>
+        <v>133.96</v>
+      </c>
+      <c r="E8">
+        <v>2.1</v>
       </c>
       <c r="F8">
-        <v>6.1759659669999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.7104585330000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>25.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C9">
-        <v>134898</v>
+        <v>148331</v>
       </c>
       <c r="D9">
-        <v>131.63999999999999</v>
+        <v>137.38999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.3</v>
       </c>
       <c r="F9">
-        <v>6.048443733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.3810699999999905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
-        <v>26.2</v>
+        <v>36.4</v>
       </c>
       <c r="C10">
-        <v>135231</v>
+        <v>149866</v>
       </c>
       <c r="D10">
-        <v>132.25</v>
+        <v>133.86000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.5</v>
       </c>
       <c r="F10">
-        <v>6.2362787329999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.1328585330000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>26.6</v>
+        <v>36.9</v>
       </c>
       <c r="C11">
-        <v>136029</v>
+        <v>151245</v>
       </c>
       <c r="D11">
-        <v>134.9</v>
+        <v>130.01</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
       </c>
       <c r="F11">
-        <v>6.1145614330000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.7865517000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>27.2</v>
+        <v>37.4</v>
       </c>
       <c r="C12">
-        <v>138348</v>
+        <v>152282</v>
       </c>
       <c r="D12">
-        <v>135.38</v>
+        <v>133</v>
+      </c>
+      <c r="E12">
+        <v>1.3</v>
       </c>
       <c r="F12">
-        <v>5.976996733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.6356296330000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
-        <v>27.8</v>
+        <v>37.9</v>
       </c>
       <c r="C13">
-        <v>138871</v>
+        <v>154754</v>
       </c>
       <c r="D13">
-        <v>137.41</v>
+        <v>123.27</v>
+      </c>
+      <c r="E13">
+        <v>1.7</v>
       </c>
       <c r="F13">
-        <v>5.7801216999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5549098669999903</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>28.4</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="C14">
-        <v>140977</v>
+        <v>158237</v>
       </c>
       <c r="D14">
-        <v>139.13999999999999</v>
+        <v>108.87</v>
+      </c>
+      <c r="E14">
+        <v>2.1</v>
       </c>
       <c r="F14">
-        <v>5.5095317670000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.4401519329999903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="C15">
-        <v>143892</v>
+        <v>160243</v>
       </c>
       <c r="D15">
-        <v>143.97999999999999</v>
+        <v>112.52</v>
+      </c>
+      <c r="E15">
+        <v>2.1</v>
       </c>
       <c r="F15">
-        <v>5.820059133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.1429602669999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>30.2</v>
+        <v>40.5</v>
       </c>
       <c r="C16">
-        <v>143269</v>
+        <v>159842</v>
       </c>
       <c r="D16">
-        <v>141.57</v>
+        <v>106.06</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>5.9571312670000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8675231669999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>30.8</v>
+        <v>41.4</v>
       </c>
       <c r="C17">
-        <v>142109</v>
+        <v>160962</v>
       </c>
       <c r="D17">
-        <v>139.82</v>
+        <v>105.98</v>
+      </c>
+      <c r="E17">
+        <v>2.2000000000000002</v>
       </c>
       <c r="F17">
-        <v>6.2221948329999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.9324611000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>31.5</v>
+        <v>42.1</v>
       </c>
       <c r="C18">
-        <v>143359</v>
+        <v>160681</v>
       </c>
       <c r="D18">
-        <v>138.58000000000001</v>
+        <v>104.87</v>
       </c>
       <c r="E18">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>6.5683436000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.7883377669999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>32.6</v>
+        <v>43.2</v>
       </c>
       <c r="C19">
-        <v>142457</v>
+        <v>161140</v>
       </c>
       <c r="D19">
-        <v>135.76</v>
+        <v>90.83</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F19">
-        <v>7.1269999669999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.2278229669999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>33.6</v>
+        <v>44.4</v>
       </c>
       <c r="C20">
-        <v>140179</v>
+        <v>163738</v>
       </c>
       <c r="D20">
-        <v>134.53</v>
+        <v>96.09</v>
       </c>
       <c r="E20">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="F20">
-        <v>8.7939619669999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3422981000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
-        <v>34.299999999999997</v>
+        <v>45.3</v>
       </c>
       <c r="C21">
-        <v>138772</v>
+        <v>165301</v>
       </c>
       <c r="D21">
-        <v>131.72</v>
+        <v>97.91</v>
       </c>
       <c r="E21">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>9.650102167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.2916267329999904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>138448</v>
+        <v>168137</v>
       </c>
       <c r="D22">
-        <v>125.45</v>
+        <v>101.59</v>
       </c>
       <c r="E22">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="F22">
-        <v>10.228736469999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.1616731330000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
-        <v>35.6</v>
+        <v>46.8</v>
       </c>
       <c r="C23">
-        <v>142754</v>
+        <v>171077</v>
       </c>
       <c r="D23">
-        <v>129.62</v>
+        <v>103.5</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F23">
-        <v>10.3556651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.9831696330000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
-        <v>36.5</v>
+        <v>47.6</v>
       </c>
       <c r="C24">
-        <v>144818</v>
+        <v>174366</v>
       </c>
       <c r="D24">
-        <v>133.96</v>
+        <v>98.819999999999894</v>
       </c>
       <c r="E24">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="F24">
-        <v>9.7104585330000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.9306838669999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
-        <v>36.299999999999997</v>
+        <v>48.4</v>
       </c>
       <c r="C25">
-        <v>148331</v>
+        <v>175224</v>
       </c>
       <c r="D25">
-        <v>137.38999999999999</v>
+        <v>99.64</v>
       </c>
       <c r="E25">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="F25">
-        <v>9.3810699999999905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.5222357329999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>36.4</v>
+        <v>49.3</v>
       </c>
       <c r="C26">
-        <v>149866</v>
+        <v>175811</v>
       </c>
       <c r="D26">
-        <v>133.86000000000001</v>
+        <v>107.53</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F26">
-        <v>9.1328585330000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6166300329999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
-        <v>36.9</v>
+        <v>50.2</v>
       </c>
       <c r="C27">
-        <v>151245</v>
+        <v>177124</v>
       </c>
       <c r="D27">
-        <v>130.01</v>
+        <v>115.58</v>
       </c>
       <c r="E27">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F27">
-        <v>8.7865517000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.9224468669999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
-        <v>37.4</v>
+        <v>51.2</v>
       </c>
       <c r="C28">
-        <v>152282</v>
+        <v>179544</v>
       </c>
       <c r="D28">
-        <v>133</v>
+        <v>118.13</v>
       </c>
       <c r="E28">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="F28">
-        <v>8.6356296330000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.7707359670000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
-        <v>37.9</v>
+        <v>51.7</v>
       </c>
       <c r="C29">
-        <v>154754</v>
+        <v>181572</v>
       </c>
       <c r="D29">
-        <v>123.27</v>
+        <v>121.15</v>
       </c>
       <c r="E29">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F29">
-        <v>8.5549098669999903</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6039098330000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
-        <v>38.799999999999997</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>158237</v>
+        <v>185374</v>
       </c>
       <c r="D30">
-        <v>108.87</v>
+        <v>114.56</v>
       </c>
       <c r="E30">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="F30">
-        <v>8.4401519329999903</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.1635812669999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
-        <v>39.700000000000003</v>
+        <v>54.2</v>
       </c>
       <c r="C31">
-        <v>160243</v>
+        <v>186661</v>
       </c>
       <c r="D31">
-        <v>112.52</v>
+        <v>114.53</v>
       </c>
       <c r="E31">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="F31">
-        <v>8.1429602669999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.035988433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
-        <v>40.5</v>
+        <v>55.2</v>
       </c>
       <c r="C32">
-        <v>159842</v>
+        <v>186430</v>
       </c>
       <c r="D32">
-        <v>106.06</v>
+        <v>117.46</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="F32">
-        <v>7.8675231669999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.866132533</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
-        <v>41.4</v>
+        <v>56.2</v>
       </c>
       <c r="C33">
-        <v>160962</v>
+        <v>187981</v>
       </c>
       <c r="D33">
-        <v>105.98</v>
+        <v>116.7</v>
       </c>
       <c r="E33">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="F33">
-        <v>7.9324611000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.2286174000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
-        <v>42.1</v>
+        <v>57.1</v>
       </c>
       <c r="C34">
-        <v>160681</v>
+        <v>188081</v>
       </c>
       <c r="D34">
-        <v>104.87</v>
+        <v>118.58</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="F34">
-        <v>7.7883377669999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.4718562669999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
-        <v>43.2</v>
+        <v>57.5</v>
       </c>
       <c r="C35">
-        <v>161140</v>
+        <v>187067</v>
       </c>
       <c r="D35">
-        <v>90.83</v>
+        <v>120.93</v>
       </c>
       <c r="E35">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="F35">
-        <v>8.2278229669999998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.2124847670000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
-        <v>44.4</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>163738</v>
+        <v>188029</v>
       </c>
       <c r="D36">
-        <v>96.09</v>
+        <v>113.37</v>
       </c>
       <c r="E36">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="F36">
-        <v>8.3422981000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8712338329999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
-        <v>45.3</v>
+        <v>58.9</v>
       </c>
       <c r="C37">
-        <v>165301</v>
+        <v>185693</v>
       </c>
       <c r="D37">
-        <v>97.91</v>
+        <v>114.11</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="F37">
-        <v>8.2916267329999904</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.7304952999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C38">
-        <v>168137</v>
+        <v>185172</v>
       </c>
       <c r="D38">
-        <v>101.59</v>
+        <v>116.82</v>
       </c>
       <c r="E38">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>8.1616731330000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.626866433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
-        <v>46.8</v>
+        <v>59.3</v>
       </c>
       <c r="C39">
-        <v>171077</v>
+        <v>185757</v>
       </c>
       <c r="D39">
-        <v>103.5</v>
+        <v>118.67</v>
       </c>
       <c r="E39">
-        <v>1.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F39">
-        <v>7.9831696330000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.8622803000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
-        <v>47.6</v>
+        <v>59.9</v>
       </c>
       <c r="C40">
-        <v>174366</v>
+        <v>186175</v>
       </c>
       <c r="D40">
-        <v>98.819999999999894</v>
+        <v>115.47</v>
       </c>
       <c r="E40">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="F40">
-        <v>7.9306838669999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.196993129999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
-        <v>48.4</v>
+        <v>59.9</v>
       </c>
       <c r="C41">
-        <v>175224</v>
+        <v>187862</v>
       </c>
       <c r="D41">
-        <v>99.64</v>
+        <v>110.43</v>
       </c>
       <c r="E41">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="F41">
-        <v>7.5222357329999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.42306177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
-        <v>49.3</v>
+        <v>59.7</v>
       </c>
       <c r="C42">
-        <v>175811</v>
+        <v>189180</v>
       </c>
       <c r="D42">
-        <v>107.53</v>
+        <v>110.83</v>
       </c>
       <c r="E42">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="F42">
-        <v>7.6166300329999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.6617712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
-        <v>50.2</v>
+        <v>59.8</v>
       </c>
       <c r="C43">
-        <v>177124</v>
+        <v>190794</v>
       </c>
       <c r="D43">
-        <v>115.58</v>
+        <v>103.82</v>
       </c>
       <c r="E43">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="F43">
-        <v>6.9224468669999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.820738970000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
-        <v>51.2</v>
+        <v>60.1</v>
       </c>
       <c r="C44">
-        <v>179544</v>
+        <v>194658</v>
       </c>
       <c r="D44">
-        <v>118.13</v>
+        <v>101.18</v>
       </c>
       <c r="E44">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F44">
-        <v>6.7707359670000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11.10017187</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
-        <v>51.7</v>
+        <v>60.6</v>
       </c>
       <c r="C45">
-        <v>181572</v>
+        <v>196472</v>
       </c>
       <c r="D45">
-        <v>121.15</v>
+        <v>101.01</v>
       </c>
       <c r="E45">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F45">
-        <v>6.6039098330000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.88747223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
-        <v>53</v>
+        <v>60.8</v>
       </c>
       <c r="C46">
-        <v>185374</v>
+        <v>197362</v>
       </c>
       <c r="D46">
-        <v>114.56</v>
+        <v>98.06</v>
       </c>
       <c r="E46">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="F46">
-        <v>6.1635812669999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.87664193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
-        <v>54.2</v>
+        <v>61.1</v>
       </c>
       <c r="C47">
-        <v>186661</v>
+        <v>197471</v>
       </c>
       <c r="D47">
-        <v>114.53</v>
+        <v>94.42</v>
       </c>
       <c r="E47">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F47">
-        <v>6.035988433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.89568543</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
-        <v>55.2</v>
+        <v>61.2</v>
       </c>
       <c r="C48">
-        <v>186430</v>
+        <v>201303</v>
       </c>
       <c r="D48">
-        <v>117.46</v>
+        <v>94.47</v>
       </c>
       <c r="E48">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F48">
-        <v>5.866132533</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.8315433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
-        <v>56.2</v>
+        <v>61.5</v>
       </c>
       <c r="C49">
-        <v>187981</v>
+        <v>204883</v>
       </c>
       <c r="D49">
-        <v>116.7</v>
+        <v>101.82</v>
       </c>
       <c r="E49">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="F49">
-        <v>6.2286174000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.454647400000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
-        <v>57.1</v>
+        <v>61.9</v>
       </c>
       <c r="C50">
-        <v>188081</v>
+        <v>207149</v>
       </c>
       <c r="D50">
-        <v>118.58</v>
+        <v>101.68</v>
       </c>
       <c r="E50">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="F50">
-        <v>6.4718562669999997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.9112908330000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
-        <v>57.5</v>
+        <v>62.3</v>
       </c>
       <c r="C51">
-        <v>187067</v>
+        <v>209086</v>
       </c>
       <c r="D51">
-        <v>120.93</v>
+        <v>101.25</v>
       </c>
       <c r="E51">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="F51">
-        <v>7.2124847670000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.4533481669999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
-        <v>59</v>
+        <v>62.8</v>
       </c>
       <c r="C52">
-        <v>188029</v>
+        <v>210231</v>
       </c>
       <c r="D52">
-        <v>113.37</v>
+        <v>102.5</v>
       </c>
       <c r="E52">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="F52">
-        <v>7.8712338329999998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9.0161937000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>58.9</v>
+        <v>63.8</v>
       </c>
       <c r="C53">
-        <v>185693</v>
+        <v>210744</v>
       </c>
       <c r="D53">
-        <v>114.11</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F53">
-        <v>8.7304952999999994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.7489871669999904</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>64.7</v>
       </c>
       <c r="C54">
-        <v>185172</v>
+        <v>212215</v>
       </c>
       <c r="D54">
-        <v>116.82</v>
+        <v>92.74</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F54">
-        <v>9.626866433</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.390593033</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
-        <v>59.3</v>
+        <v>65.5</v>
       </c>
       <c r="C55">
-        <v>185757</v>
+        <v>215942</v>
       </c>
       <c r="D55">
-        <v>118.67</v>
+        <v>97.95</v>
       </c>
       <c r="E55">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>9.8622803000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3712591669999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
-        <v>59.9</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>186175</v>
+        <v>217011</v>
       </c>
       <c r="D56">
-        <v>115.47</v>
+        <v>100.78</v>
       </c>
       <c r="E56">
         <v>0.7</v>
       </c>
       <c r="F56">
-        <v>10.196993129999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3696770669999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
-        <v>59.9</v>
+        <v>66.2</v>
       </c>
       <c r="C57">
-        <v>187862</v>
+        <v>221030</v>
       </c>
       <c r="D57">
-        <v>110.43</v>
+        <v>103.11</v>
       </c>
       <c r="E57">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F57">
-        <v>10.42306177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3950173330000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
-        <v>59.7</v>
+        <v>66.7</v>
       </c>
       <c r="C58">
-        <v>189180</v>
+        <v>221539</v>
       </c>
       <c r="D58">
-        <v>110.83</v>
+        <v>108.23</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F58">
-        <v>10.6617712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.4339252669999905</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
-        <v>59.8</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C59">
-        <v>190794</v>
+        <v>224246</v>
       </c>
       <c r="D59">
-        <v>103.82</v>
+        <v>108.2</v>
       </c>
       <c r="E59">
         <v>0.5</v>
       </c>
       <c r="F59">
-        <v>10.820738970000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5804539999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
-        <v>60.1</v>
+        <v>67</v>
       </c>
       <c r="C60">
-        <v>194658</v>
+        <v>225881</v>
       </c>
       <c r="D60">
-        <v>101.18</v>
+        <v>109.85</v>
       </c>
       <c r="E60">
         <v>0.6</v>
       </c>
       <c r="F60">
-        <v>11.10017187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.6162542999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
-        <v>60.6</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="C61">
-        <v>196472</v>
+        <v>226534</v>
       </c>
       <c r="D61">
-        <v>101.01</v>
+        <v>111.07</v>
       </c>
       <c r="E61">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F61">
-        <v>10.88747223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5957289330000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
-        <v>60.8</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="C62">
-        <v>197362</v>
+        <v>233387</v>
       </c>
       <c r="D62">
-        <v>98.06</v>
+        <v>109.94</v>
       </c>
       <c r="E62">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F62">
-        <v>10.87664193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.4840218669999903</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
       <c r="B63">
-        <v>61.1</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="C63">
-        <v>197471</v>
+        <v>233336</v>
       </c>
       <c r="D63">
-        <v>94.42</v>
+        <v>107.45</v>
       </c>
       <c r="E63">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F63">
-        <v>10.89568543</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.3408796330000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64">
-        <v>61.2</v>
+        <v>66.8</v>
       </c>
       <c r="C64">
-        <v>201303</v>
+        <v>236607</v>
       </c>
       <c r="D64">
-        <v>94.47</v>
+        <v>107.73</v>
       </c>
       <c r="E64">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F64">
-        <v>10.8315433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.9797364330000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
       <c r="B65">
-        <v>61.5</v>
+        <v>67</v>
       </c>
       <c r="C65">
-        <v>204883</v>
+        <v>239216</v>
       </c>
       <c r="D65">
-        <v>101.82</v>
+        <v>111.55</v>
       </c>
       <c r="E65">
         <v>0.5</v>
       </c>
       <c r="F65">
-        <v>10.454647400000001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.8389550669999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
       <c r="B66">
-        <v>61.9</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C66">
-        <v>207149</v>
+        <v>241211</v>
       </c>
       <c r="D66">
-        <v>101.68</v>
+        <v>105.48</v>
       </c>
       <c r="E66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F66">
-        <v>9.9112908330000007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.7173442000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
       <c r="B67">
-        <v>62.3</v>
+        <v>67.5</v>
       </c>
       <c r="C67">
-        <v>209086</v>
+        <v>245586</v>
       </c>
       <c r="D67">
-        <v>101.25</v>
+        <v>102.1</v>
       </c>
       <c r="E67">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F67">
-        <v>9.4533481669999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.7708386669999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
       <c r="B68">
-        <v>62.8</v>
+        <v>67.8</v>
       </c>
       <c r="C68">
-        <v>210231</v>
+        <v>249099</v>
       </c>
       <c r="D68">
-        <v>102.5</v>
+        <v>99.14</v>
       </c>
       <c r="E68">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F68">
-        <v>9.0161937000000005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.3762226670000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
       <c r="B69">
-        <v>63.8</v>
+        <v>67.8</v>
       </c>
       <c r="C69">
-        <v>210744</v>
+        <v>251029</v>
       </c>
       <c r="D69">
-        <v>100</v>
+        <v>101.43</v>
       </c>
       <c r="E69">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F69">
-        <v>8.7489871669999904</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0774021999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
       <c r="B70">
-        <v>64.7</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C70">
-        <v>212215</v>
+        <v>252216</v>
       </c>
       <c r="D70">
-        <v>92.74</v>
+        <v>106.16</v>
       </c>
       <c r="E70">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F70">
-        <v>8.390593033</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.8573147670000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
-        <v>65.5</v>
+        <v>68.7</v>
       </c>
       <c r="C71">
-        <v>215942</v>
+        <v>254497</v>
       </c>
       <c r="D71">
-        <v>97.95</v>
+        <v>105.48</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F71">
-        <v>8.3712591669999998</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.8789892330000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
       <c r="B72">
-        <v>66</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="C72">
-        <v>217011</v>
+        <v>258750</v>
       </c>
       <c r="D72">
-        <v>100.78</v>
+        <v>102.85</v>
       </c>
       <c r="E72">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F72">
-        <v>8.3696770669999996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6214793670000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
       <c r="B73">
-        <v>66.2</v>
+        <v>69.7</v>
       </c>
       <c r="C73">
-        <v>221030</v>
+        <v>260653</v>
       </c>
       <c r="D73">
-        <v>103.11</v>
+        <v>102.6</v>
       </c>
       <c r="E73">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F73">
-        <v>8.3950173330000002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6657457329999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
       <c r="B74">
-        <v>66.7</v>
+        <v>70.2</v>
       </c>
       <c r="C74">
-        <v>221539</v>
+        <v>262670</v>
       </c>
       <c r="D74">
-        <v>108.23</v>
+        <v>97.42</v>
       </c>
       <c r="E74">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F74">
-        <v>8.4339252669999905</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.2679903000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
       <c r="B75">
-        <v>66.900000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="C75">
-        <v>224246</v>
+        <v>262846</v>
       </c>
       <c r="D75">
-        <v>108.2</v>
+        <v>97.04</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F75">
-        <v>8.5804539999999996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.9941034670000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
       <c r="B76">
-        <v>67</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C76">
-        <v>225881</v>
+        <v>261688</v>
       </c>
       <c r="D76">
-        <v>109.85</v>
+        <v>92.31</v>
       </c>
       <c r="E76">
         <v>0.6</v>
       </c>
       <c r="F76">
-        <v>8.6162542999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.1531218670000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
       <c r="B77">
-        <v>67.099999999999994</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="C77">
-        <v>226534</v>
+        <v>265069</v>
       </c>
       <c r="D77">
-        <v>111.07</v>
+        <v>93.75</v>
       </c>
       <c r="E77">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>8.5957289330000002</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3727717999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
       <c r="B78">
-        <v>66.900000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="C78">
-        <v>233387</v>
+        <v>266958</v>
       </c>
       <c r="D78">
-        <v>109.94</v>
+        <v>93.14</v>
       </c>
       <c r="E78">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F78">
-        <v>8.4840218669999903</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.8373847000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
       <c r="B79">
-        <v>66.599999999999994</v>
+        <v>74.7</v>
       </c>
       <c r="C79">
-        <v>233336</v>
+        <v>269997</v>
       </c>
       <c r="D79">
-        <v>107.45</v>
+        <v>93.03</v>
       </c>
       <c r="E79">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="F79">
-        <v>8.3408796330000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.8689229669999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
       <c r="B80">
-        <v>66.8</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C80">
-        <v>236607</v>
+        <v>272829</v>
       </c>
       <c r="D80">
-        <v>107.73</v>
+        <v>93.8</v>
       </c>
       <c r="E80">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F80">
-        <v>7.9797364330000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.9584349330000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81">
-        <v>67</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="C81">
-        <v>239216</v>
+        <v>275086</v>
       </c>
       <c r="D81">
-        <v>111.55</v>
+        <v>97.06</v>
       </c>
       <c r="E81">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F81">
-        <v>7.8389550669999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.646987867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
       <c r="B82">
-        <v>67.400000000000006</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="C82">
-        <v>241211</v>
+        <v>279466</v>
       </c>
       <c r="D82">
-        <v>105.48</v>
+        <v>100.46</v>
       </c>
       <c r="E82">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F82">
-        <v>7.7173442000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3792746329999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
       <c r="B83">
-        <v>67.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="C83">
-        <v>245586</v>
+        <v>280488</v>
       </c>
       <c r="D83">
-        <v>102.1</v>
+        <v>97.319999999999894</v>
       </c>
       <c r="E83">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="F83">
-        <v>7.7708386669999996</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.272708433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="B84">
-        <v>67.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="C84">
-        <v>249099</v>
+        <v>282764</v>
       </c>
       <c r="D84">
-        <v>99.14</v>
+        <v>99.61</v>
       </c>
       <c r="E84">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F84">
-        <v>7.3762226670000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.1394565999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
       <c r="B85">
-        <v>67.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C85">
-        <v>251029</v>
+        <v>282852</v>
       </c>
       <c r="D85">
-        <v>101.43</v>
+        <v>103.58</v>
       </c>
       <c r="E85">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F85">
-        <v>7.0774021999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.0548070000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
       <c r="B86">
-        <v>68.099999999999994</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="C86">
-        <v>252216</v>
+        <v>285065</v>
       </c>
       <c r="D86">
-        <v>106.16</v>
+        <v>110.24</v>
       </c>
       <c r="E86">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F86">
-        <v>6.8573147670000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.033523067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
       <c r="B87">
-        <v>68.7</v>
+        <v>79.099999999999994</v>
       </c>
       <c r="C87">
-        <v>254497</v>
+        <v>289447</v>
       </c>
       <c r="D87">
-        <v>105.48</v>
+        <v>113.39</v>
       </c>
       <c r="E87">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F87">
-        <v>6.8789892330000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.8911609670000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88">
-        <v>69.099999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="C88">
-        <v>258750</v>
+        <v>294206</v>
       </c>
       <c r="D88">
-        <v>102.85</v>
+        <v>119.73</v>
       </c>
       <c r="E88">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F88">
-        <v>6.6214793670000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.7043742330000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
       <c r="B89">
-        <v>69.7</v>
+        <v>80.2</v>
       </c>
       <c r="C89">
-        <v>260653</v>
+        <v>296420</v>
       </c>
       <c r="D89">
-        <v>102.6</v>
+        <v>125.98</v>
       </c>
       <c r="E89">
         <v>0.7</v>
       </c>
       <c r="F89">
-        <v>6.6657457329999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.5355049000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
       <c r="B90">
-        <v>70.2</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="C90">
-        <v>262670</v>
+        <v>298115</v>
       </c>
       <c r="D90">
-        <v>97.42</v>
+        <v>119.54</v>
       </c>
       <c r="E90">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="F90">
-        <v>6.2679903000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.4232059330000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="B91">
-        <v>72.900000000000006</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C91">
-        <v>262846</v>
+        <v>300680</v>
       </c>
       <c r="D91">
-        <v>97.04</v>
+        <v>118.55</v>
       </c>
       <c r="E91">
         <v>0.6</v>
       </c>
       <c r="F91">
-        <v>5.9941034670000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.467103067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
       <c r="B92">
-        <v>73.099999999999994</v>
+        <v>81.5</v>
       </c>
       <c r="C92">
-        <v>261688</v>
+        <v>302838</v>
       </c>
       <c r="D92">
-        <v>92.31</v>
+        <v>123.29</v>
       </c>
       <c r="E92">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F92">
-        <v>6.1531218670000003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1265929999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
       <c r="B93">
-        <v>73.900000000000006</v>
+        <v>82.1</v>
       </c>
       <c r="C93">
-        <v>265069</v>
+        <v>305481</v>
       </c>
       <c r="D93">
-        <v>93.75</v>
+        <v>125.47</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F93">
-        <v>6.3727717999999998</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0847872670000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
       <c r="B94">
-        <v>74.5</v>
+        <v>82.6</v>
       </c>
       <c r="C94">
-        <v>266958</v>
+        <v>307083</v>
       </c>
       <c r="D94">
-        <v>93.14</v>
+        <v>125.93</v>
       </c>
       <c r="E94">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F94">
-        <v>6.8373847000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0427859670000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
       <c r="B95">
-        <v>74.7</v>
+        <v>83.4</v>
       </c>
       <c r="C95">
-        <v>269997</v>
+        <v>310832</v>
       </c>
       <c r="D95">
-        <v>93.03</v>
+        <v>126.98</v>
       </c>
       <c r="E95">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F95">
-        <v>6.8689229669999996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9523046669999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
       <c r="B96">
-        <v>75.400000000000006</v>
+        <v>83.8</v>
       </c>
       <c r="C96">
-        <v>272829</v>
+        <v>313150</v>
       </c>
       <c r="D96">
-        <v>93.8</v>
+        <v>126.19</v>
       </c>
       <c r="E96">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="F96">
-        <v>6.9584349330000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0207477330000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
       <c r="B97">
-        <v>76.099999999999994</v>
+        <v>84.5</v>
       </c>
       <c r="C97">
-        <v>275086</v>
+        <v>313840</v>
       </c>
       <c r="D97">
-        <v>97.06</v>
+        <v>124.73</v>
       </c>
       <c r="E97">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F97">
-        <v>6.646987867</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0258948999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
       <c r="B98">
-        <v>76.599999999999994</v>
+        <v>85.9</v>
       </c>
       <c r="C98">
-        <v>279466</v>
+        <v>314630</v>
       </c>
       <c r="D98">
-        <v>100.46</v>
+        <v>124.55</v>
       </c>
       <c r="E98">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F98">
-        <v>6.3792746329999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.8362423330000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="B99">
-        <v>77.099999999999994</v>
+        <v>86.7</v>
       </c>
       <c r="C99">
-        <v>280488</v>
+        <v>317936</v>
       </c>
       <c r="D99">
-        <v>97.319999999999894</v>
+        <v>126.62</v>
       </c>
       <c r="E99">
         <v>0.7</v>
       </c>
       <c r="F99">
-        <v>6.272708433</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.6839938329999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
       <c r="B100">
-        <v>77.599999999999994</v>
+        <v>86.6</v>
       </c>
       <c r="C100">
-        <v>282764</v>
+        <v>322960</v>
       </c>
       <c r="D100">
-        <v>99.61</v>
+        <v>127.85</v>
       </c>
       <c r="E100">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F100">
-        <v>6.1394565999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5290485670000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
       <c r="B101">
-        <v>78.599999999999994</v>
+        <v>86.6</v>
       </c>
       <c r="C101">
-        <v>282852</v>
+        <v>327983</v>
       </c>
       <c r="D101">
-        <v>103.58</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="E101">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F101">
-        <v>6.0548070000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.5234336329999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102">
-        <v>78.599999999999994</v>
+        <v>87.7</v>
       </c>
       <c r="C102">
-        <v>285065</v>
+        <v>330667</v>
       </c>
       <c r="D102">
-        <v>110.24</v>
+        <v>135.88999999999999</v>
       </c>
       <c r="E102">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F102">
-        <v>6.033523067</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.3008911999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="B103">
-        <v>79.099999999999994</v>
+        <v>88.3</v>
       </c>
       <c r="C103">
-        <v>289447</v>
+        <v>333095</v>
       </c>
       <c r="D103">
-        <v>113.39</v>
+        <v>137.69999999999999</v>
       </c>
       <c r="E103">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="F103">
-        <v>5.8911609670000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2678443330000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
       <c r="B104">
-        <v>79.5</v>
+        <v>89.1</v>
       </c>
       <c r="C104">
-        <v>294206</v>
+        <v>334996</v>
       </c>
       <c r="D104">
-        <v>119.73</v>
+        <v>141.44</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="F104">
-        <v>5.7043742330000002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.359653067</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105">
-        <v>80.2</v>
+        <v>90.3</v>
       </c>
       <c r="C105">
-        <v>296420</v>
+        <v>339218</v>
       </c>
       <c r="D105">
-        <v>125.98</v>
+        <v>141.25</v>
       </c>
       <c r="E105">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="F105">
-        <v>5.5355049000000003</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.0747989330000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
       <c r="B106">
-        <v>80.599999999999994</v>
+        <v>91.6</v>
       </c>
       <c r="C106">
-        <v>298115</v>
+        <v>340351</v>
       </c>
       <c r="D106">
-        <v>119.54</v>
+        <v>145.91</v>
       </c>
       <c r="E106">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F106">
-        <v>5.4232059330000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.2337365330000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
       <c r="B107">
-        <v>80.900000000000006</v>
+        <v>92.7</v>
       </c>
       <c r="C107">
-        <v>300680</v>
+        <v>342702</v>
       </c>
       <c r="D107">
-        <v>118.55</v>
+        <v>141.11000000000001</v>
       </c>
       <c r="E107">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="F107">
-        <v>5.467103067</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.1991958670000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
       <c r="B108">
-        <v>81.5</v>
+        <v>92.4</v>
       </c>
       <c r="C108">
-        <v>302838</v>
+        <v>339958</v>
       </c>
       <c r="D108">
-        <v>123.29</v>
+        <v>113.31</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F108">
-        <v>5.1265929999999997</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.4351251999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
       <c r="B109">
-        <v>82.1</v>
+        <v>92.5</v>
       </c>
       <c r="C109">
-        <v>305481</v>
+        <v>343411</v>
       </c>
       <c r="D109">
-        <v>125.47</v>
+        <v>114.79</v>
       </c>
       <c r="E109">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F109">
-        <v>5.0847872670000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2918418999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
       <c r="B110">
-        <v>82.6</v>
+        <v>92.9</v>
       </c>
       <c r="C110">
-        <v>307083</v>
+        <v>344927</v>
       </c>
       <c r="D110">
-        <v>125.93</v>
+        <v>128.63999999999999</v>
       </c>
       <c r="E110">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F110">
-        <v>5.0427859670000004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6999845330000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
       <c r="B111">
-        <v>83.4</v>
+        <v>93.8</v>
       </c>
       <c r="C111">
-        <v>310832</v>
+        <v>346290</v>
       </c>
       <c r="D111">
-        <v>126.98</v>
+        <v>137.65</v>
       </c>
       <c r="E111">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F111">
-        <v>4.9523046669999999</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6961022000000003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
       <c r="B112">
-        <v>83.8</v>
+        <v>94.3</v>
       </c>
       <c r="C112">
-        <v>313150</v>
+        <v>348925</v>
       </c>
       <c r="D112">
-        <v>126.19</v>
+        <v>147.05000000000001</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F112">
-        <v>5.0207477330000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.539356733</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
       <c r="B113">
-        <v>84.5</v>
+        <v>95.2</v>
       </c>
       <c r="C113">
-        <v>313840</v>
+        <v>350345</v>
       </c>
       <c r="D113">
-        <v>124.73</v>
+        <v>148.41</v>
       </c>
       <c r="E113">
         <v>0.8</v>
       </c>
       <c r="F113">
-        <v>5.0258948999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.3311976000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
       <c r="B114">
-        <v>85.9</v>
+        <v>95.8</v>
       </c>
       <c r="C114">
-        <v>314630</v>
+        <v>352342</v>
       </c>
       <c r="D114">
-        <v>124.55</v>
+        <v>146.81</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="F114">
-        <v>4.8362423330000004</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2760957670000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
       <c r="B115">
-        <v>86.7</v>
+        <v>96.5</v>
       </c>
       <c r="C115">
-        <v>317936</v>
+        <v>354101</v>
       </c>
       <c r="D115">
-        <v>126.62</v>
+        <v>147.57</v>
       </c>
       <c r="E115">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F115">
-        <v>4.6839938329999997</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1266030669999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
       <c r="B116">
-        <v>86.6</v>
+        <v>96.9</v>
       </c>
       <c r="C116">
-        <v>322960</v>
+        <v>358024</v>
       </c>
       <c r="D116">
-        <v>127.85</v>
+        <v>155.88999999999999</v>
       </c>
       <c r="E116">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F116">
-        <v>4.5290485670000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0574181999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
       <c r="B117">
-        <v>86.6</v>
+        <v>98.3</v>
       </c>
       <c r="C117">
-        <v>327983</v>
+        <v>356824</v>
       </c>
       <c r="D117">
-        <v>129.86000000000001</v>
+        <v>157.97</v>
       </c>
       <c r="E117">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F117">
-        <v>4.5234336329999998</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9700931329999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
       <c r="B118">
-        <v>87.7</v>
+        <v>99.2</v>
       </c>
       <c r="C118">
-        <v>330667</v>
+        <v>361405</v>
       </c>
       <c r="D118">
-        <v>135.88999999999999</v>
+        <v>163.57</v>
       </c>
       <c r="E118">
         <v>0.9</v>
       </c>
       <c r="F118">
-        <v>4.3008911999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9652634999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
       <c r="B119">
-        <v>88.3</v>
+        <v>99.8</v>
       </c>
       <c r="C119">
-        <v>333095</v>
+        <v>365780</v>
       </c>
       <c r="D119">
-        <v>137.69999999999999</v>
+        <v>160.09</v>
       </c>
       <c r="E119">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="F119">
-        <v>4.2678443330000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1846801329999996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120">
-        <v>89.1</v>
+        <v>99.8</v>
       </c>
       <c r="C120">
-        <v>334996</v>
+        <v>369298</v>
       </c>
       <c r="D120">
-        <v>141.44</v>
+        <v>157.87</v>
       </c>
       <c r="E120">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F120">
-        <v>4.359653067</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1610111329999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121">
-        <v>90.3</v>
+        <v>99.9</v>
       </c>
       <c r="C121">
-        <v>339218</v>
+        <v>373291</v>
       </c>
       <c r="D121">
-        <v>141.25</v>
+        <v>164.41</v>
       </c>
       <c r="E121">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="F121">
-        <v>4.0747989330000003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1604865000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122">
-        <v>91.6</v>
+        <v>100.4</v>
       </c>
       <c r="C122">
-        <v>340351</v>
+        <v>375306</v>
       </c>
       <c r="D122">
-        <v>145.91</v>
+        <v>159.01</v>
       </c>
       <c r="E122">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="F122">
-        <v>4.2337365330000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.1310980329999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123">
-        <v>92.7</v>
+        <v>101.8</v>
       </c>
       <c r="C123">
-        <v>342702</v>
+        <v>377630</v>
       </c>
       <c r="D123">
-        <v>141.11000000000001</v>
+        <v>164.22</v>
       </c>
       <c r="E123">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="F123">
-        <v>4.1991958670000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.2502572670000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124">
-        <v>92.4</v>
+        <v>102</v>
       </c>
       <c r="C124">
-        <v>339958</v>
+        <v>379395</v>
       </c>
       <c r="D124">
-        <v>113.31</v>
+        <v>162.52000000000001</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F124">
-        <v>4.4351251999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.3130855669999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125">
-        <v>92.5</v>
+        <v>102.4</v>
       </c>
       <c r="C125">
-        <v>343411</v>
+        <v>380597</v>
       </c>
       <c r="D125">
-        <v>114.79</v>
+        <v>165.46</v>
       </c>
       <c r="E125">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>5.2918418999999997</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.4869218330000002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126">
-        <v>92.9</v>
+        <v>102.8</v>
       </c>
       <c r="C126">
-        <v>344927</v>
+        <v>383322</v>
       </c>
       <c r="D126">
-        <v>128.63999999999999</v>
+        <v>160.71</v>
       </c>
       <c r="E126">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F126">
-        <v>5.6999845330000003</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6495167000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127">
-        <v>93.8</v>
+        <v>104</v>
       </c>
       <c r="C127">
-        <v>346290</v>
+        <v>384922</v>
       </c>
       <c r="D127">
-        <v>137.65</v>
+        <v>150.03</v>
       </c>
       <c r="E127">
         <v>0.7</v>
       </c>
       <c r="F127">
-        <v>5.6961022000000003</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.6834394330000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
       <c r="B128">
-        <v>94.3</v>
+        <v>104.8</v>
       </c>
       <c r="C128">
-        <v>348925</v>
+        <v>387749</v>
       </c>
       <c r="D128">
-        <v>147.05000000000001</v>
+        <v>151.4</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F128">
-        <v>5.539356733</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.7772643329999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
       <c r="B129">
-        <v>95.2</v>
+        <v>105.4</v>
       </c>
       <c r="C129">
-        <v>350345</v>
+        <v>391951</v>
       </c>
       <c r="D129">
-        <v>148.41</v>
+        <v>147.72</v>
       </c>
       <c r="E129">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>5.3311976000000003</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.9091600670000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
       <c r="B130">
-        <v>95.8</v>
+        <v>105.9</v>
       </c>
       <c r="C130">
-        <v>352342</v>
+        <v>393761</v>
       </c>
       <c r="D130">
-        <v>146.81</v>
+        <v>153.04</v>
       </c>
       <c r="E130">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F130">
-        <v>5.2760957670000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.9435007329999996</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>133</v>
       </c>
       <c r="B131">
-        <v>96.5</v>
+        <v>106.4</v>
       </c>
       <c r="C131">
-        <v>354101</v>
+        <v>395170</v>
       </c>
       <c r="D131">
-        <v>147.57</v>
+        <v>152.49</v>
       </c>
       <c r="E131">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F131">
-        <v>5.1266030669999996</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.1946946670000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>134</v>
       </c>
       <c r="B132">
-        <v>96.9</v>
+        <v>106.6</v>
       </c>
       <c r="C132">
-        <v>358024</v>
+        <v>397341</v>
       </c>
       <c r="D132">
-        <v>155.88999999999999</v>
+        <v>146.22999999999999</v>
       </c>
       <c r="E132">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="F132">
-        <v>5.0574181999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-      <c r="B133">
-        <v>98.3</v>
-      </c>
-      <c r="C133">
-        <v>356824</v>
-      </c>
-      <c r="D133">
-        <v>157.97</v>
-      </c>
-      <c r="E133">
-        <v>0.8</v>
-      </c>
-      <c r="F133">
-        <v>4.9700931329999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B134">
-        <v>99.2</v>
-      </c>
-      <c r="C134">
-        <v>361405</v>
-      </c>
-      <c r="D134">
-        <v>163.57</v>
-      </c>
-      <c r="E134">
-        <v>0.9</v>
-      </c>
-      <c r="F134">
-        <v>4.9652634999999998</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="B135">
-        <v>99.8</v>
-      </c>
-      <c r="C135">
-        <v>365780</v>
-      </c>
-      <c r="D135">
-        <v>160.09</v>
-      </c>
-      <c r="E135">
-        <v>0.4</v>
-      </c>
-      <c r="F135">
-        <v>5.1846801329999996</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136">
-        <v>99.8</v>
-      </c>
-      <c r="C136">
-        <v>369298</v>
-      </c>
-      <c r="D136">
-        <v>157.87</v>
-      </c>
-      <c r="E136">
-        <v>0.6</v>
-      </c>
-      <c r="F136">
-        <v>5.1610111329999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="B137">
-        <v>99.9</v>
-      </c>
-      <c r="C137">
-        <v>373291</v>
-      </c>
-      <c r="D137">
-        <v>164.41</v>
-      </c>
-      <c r="E137">
-        <v>0.4</v>
-      </c>
-      <c r="F137">
-        <v>5.1604865000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="B138">
-        <v>100.4</v>
-      </c>
-      <c r="C138">
-        <v>375306</v>
-      </c>
-      <c r="D138">
-        <v>159.01</v>
-      </c>
-      <c r="E138">
-        <v>0.5</v>
-      </c>
-      <c r="F138">
-        <v>5.1310980329999998</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139">
-        <v>101.8</v>
-      </c>
-      <c r="C139">
-        <v>377630</v>
-      </c>
-      <c r="D139">
-        <v>164.22</v>
-      </c>
-      <c r="E139">
-        <v>0.7</v>
-      </c>
-      <c r="F139">
-        <v>5.2502572670000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="B140">
-        <v>102</v>
-      </c>
-      <c r="C140">
-        <v>379395</v>
-      </c>
-      <c r="D140">
-        <v>162.52000000000001</v>
-      </c>
-      <c r="E140">
-        <v>0.6</v>
-      </c>
-      <c r="F140">
-        <v>5.3130855669999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141">
-        <v>102.4</v>
-      </c>
-      <c r="C141">
-        <v>380597</v>
-      </c>
-      <c r="D141">
-        <v>165.46</v>
-      </c>
-      <c r="E141">
-        <v>0.5</v>
-      </c>
-      <c r="F141">
-        <v>5.4869218330000002</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>144</v>
-      </c>
-      <c r="B142">
-        <v>102.8</v>
-      </c>
-      <c r="C142">
-        <v>383322</v>
-      </c>
-      <c r="D142">
-        <v>160.71</v>
-      </c>
-      <c r="E142">
-        <v>0.6</v>
-      </c>
-      <c r="F142">
-        <v>5.6495167000000004</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143">
-        <v>104</v>
-      </c>
-      <c r="C143">
-        <v>384922</v>
-      </c>
-      <c r="D143">
-        <v>150.03</v>
-      </c>
-      <c r="E143">
-        <v>0.7</v>
-      </c>
-      <c r="F143">
-        <v>5.6834394330000002</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144">
-        <v>104.8</v>
-      </c>
-      <c r="C144">
-        <v>387749</v>
-      </c>
-      <c r="D144">
-        <v>151.4</v>
-      </c>
-      <c r="E144">
-        <v>0.9</v>
-      </c>
-      <c r="F144">
-        <v>5.7772643329999998</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145">
-        <v>105.4</v>
-      </c>
-      <c r="C145">
-        <v>391951</v>
-      </c>
-      <c r="D145">
-        <v>147.72</v>
-      </c>
-      <c r="E145">
-        <v>0.5</v>
-      </c>
-      <c r="F145">
-        <v>5.9091600670000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146">
-        <v>105.9</v>
-      </c>
-      <c r="C146">
-        <v>393761</v>
-      </c>
-      <c r="D146">
-        <v>153.04</v>
-      </c>
-      <c r="E146">
-        <v>0.7</v>
-      </c>
-      <c r="F146">
-        <v>5.9435007329999996</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147">
-        <v>106.4</v>
-      </c>
-      <c r="C147">
-        <v>395170</v>
-      </c>
-      <c r="D147">
-        <v>152.49</v>
-      </c>
-      <c r="E147">
-        <v>0.3</v>
-      </c>
-      <c r="F147">
-        <v>6.1946946670000003</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148">
-        <v>106.6</v>
-      </c>
-      <c r="C148">
-        <v>397341</v>
-      </c>
-      <c r="D148">
-        <v>146.22999999999999</v>
-      </c>
-      <c r="E148">
-        <v>0.6</v>
-      </c>
-      <c r="F148">
         <v>6.1809456669999996</v>
       </c>
     </row>
